--- a/DeepEchoes/DeepEchoes_Main.xlsx
+++ b/DeepEchoes/DeepEchoes_Main.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Disgin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Document\DeepEchoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0603714-9A4D-49C3-A200-9B57ACBF6B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD4C4B3-B43E-439D-9226-567EAA4519DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
     <sheet name="PlayerVariable" sheetId="2" r:id="rId2"/>
     <sheet name="PlayerType" sheetId="3" r:id="rId3"/>
     <sheet name="Feature" sheetId="4" r:id="rId4"/>
+    <sheet name="Enemy" sheetId="5" r:id="rId5"/>
+    <sheet name="Enhance" sheetId="6" r:id="rId6"/>
+    <sheet name="Boss" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="254">
   <si>
     <t>攻击力</t>
   </si>
@@ -444,76 +447,461 @@
     <t>消耗电量为一位探索型机器人随机制造一个道具</t>
   </si>
   <si>
+    <t>随机</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>消耗电量为所有机器人恢复所有电能护盾</t>
+  </si>
+  <si>
+    <t>护盾恢复</t>
+  </si>
+  <si>
+    <t>Volley</t>
+  </si>
+  <si>
+    <t>消耗电量，发射六枚微型导弹优先打击最近的敌人</t>
+  </si>
+  <si>
+    <t>Torpedo</t>
+  </si>
+  <si>
+    <t>消耗电量，向前方发射一枚鱼雷，触碰物体爆炸</t>
+  </si>
+  <si>
+    <t>击退8</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>消耗电量，向前方全速冲撞，对沿途敌对生物造成伤害并击退</t>
+  </si>
+  <si>
+    <t>速度6</t>
+  </si>
+  <si>
+    <t>Infrasound</t>
+  </si>
+  <si>
+    <t>消耗电量，发射次声波，作用于周围生物造成伤害并眩晕</t>
+  </si>
+  <si>
+    <t>2.5s</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Tranquilizer Gun</t>
+  </si>
+  <si>
+    <t>消耗电量，使用一把特殊手枪，对敌对生物造成更大伤害并麻痹对方</t>
+  </si>
+  <si>
+    <t>麻痹5s</t>
+  </si>
+  <si>
+    <t>Turret</t>
+  </si>
+  <si>
+    <t>消耗电量，启动一个浮游炮台协助作战</t>
+  </si>
+  <si>
+    <t>15s</t>
+  </si>
+  <si>
+    <t>energy_consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生成道具</t>
-  </si>
-  <si>
-    <t>随机</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>消耗电量为所有机器人恢复所有电能护盾</t>
-  </si>
-  <si>
-    <t>护盾恢复</t>
-  </si>
-  <si>
-    <t>Volley</t>
-  </si>
-  <si>
-    <t>消耗电量，发射六枚微型导弹优先打击最近的敌人</t>
-  </si>
-  <si>
-    <t>Torpedo</t>
-  </si>
-  <si>
-    <t>消耗电量，向前方发射一枚鱼雷，触碰物体爆炸</t>
-  </si>
-  <si>
-    <t>击退8</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>消耗电量，向前方全速冲撞，对沿途敌对生物造成伤害并击退</t>
-  </si>
-  <si>
-    <t>速度6</t>
-  </si>
-  <si>
-    <t>Infrasound</t>
-  </si>
-  <si>
-    <t>消耗电量，发射次声波，作用于周围生物造成伤害并眩晕</t>
-  </si>
-  <si>
-    <t>2.5s</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>Tranquilizer Gun</t>
-  </si>
-  <si>
-    <t>消耗电量，使用一把特殊手枪，对敌对生物造成更大伤害并麻痹对方</t>
-  </si>
-  <si>
-    <t>麻痹5s</t>
-  </si>
-  <si>
-    <t>Turret</t>
-  </si>
-  <si>
-    <t>消耗电量，启动一个浮游炮台协助作战</t>
-  </si>
-  <si>
-    <t>15s</t>
-  </si>
-  <si>
-    <t>energy_consume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述与效果</t>
+  </si>
+  <si>
+    <t>蓝圆鲹/水虎鱼</t>
+  </si>
+  <si>
+    <t>撕咬型</t>
+  </si>
+  <si>
+    <t>最普通的一类，速度快、伤害低、防御弱</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>剑鱼</t>
+  </si>
+  <si>
+    <t>切割型</t>
+  </si>
+  <si>
+    <t>冲撞状态持续1.5s</t>
+  </si>
+  <si>
+    <t>象鼻鱼</t>
+  </si>
+  <si>
+    <t>汲电型</t>
+  </si>
+  <si>
+    <t>攻击供电型机器人，速度、伤害、防御均一般</t>
+  </si>
+  <si>
+    <t>射水鱼</t>
+  </si>
+  <si>
+    <t>喷涌型</t>
+  </si>
+  <si>
+    <t>喷出强大湍流使机器人被推飞，速度慢伤害低防御强</t>
+  </si>
+  <si>
+    <t>湍流速度8，宽度6，持续2s，击退距离12</t>
+  </si>
+  <si>
+    <t>电鳐/电鲶</t>
+  </si>
+  <si>
+    <t>故障型</t>
+  </si>
+  <si>
+    <t>释放强电流使机器人故障，速度一般伤害高防御一般</t>
+  </si>
+  <si>
+    <t>电流速度10</t>
+  </si>
+  <si>
+    <t>乌贼/墨鱼</t>
+  </si>
+  <si>
+    <t>腐蚀型</t>
+  </si>
+  <si>
+    <t>腐蚀性物质喷射速度6</t>
+  </si>
+  <si>
+    <t>喷出腐蚀性物质腐蚀电能护盾，速度慢伤害一般防御弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端拥有坚硬部位,造成伤害并剪断电缆，速度快伤害较高防御一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10\13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22\28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13\18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34\44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28\32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7\10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1\2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8\10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3\4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1\1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refrence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅海\深海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>速度+1</t>
+  </si>
+  <si>
+    <t>节能装置</t>
+  </si>
+  <si>
+    <t>耗电速率-0.2/s</t>
+  </si>
+  <si>
+    <t>高效修复</t>
+  </si>
+  <si>
+    <t>探索型通用</t>
+  </si>
+  <si>
+    <t>护盾修复执行时间-1s</t>
+  </si>
+  <si>
+    <t>深海追猎者</t>
+  </si>
+  <si>
+    <t>攻击型</t>
+  </si>
+  <si>
+    <t>攻击力从15提升至19，攻击间隔从7s缩短至6s</t>
+  </si>
+  <si>
+    <t>收割</t>
+  </si>
+  <si>
+    <t>防御型</t>
+  </si>
+  <si>
+    <t>攻击力从7提升至9，攻击范围从2提升至3</t>
+  </si>
+  <si>
+    <t>爆反</t>
+  </si>
+  <si>
+    <t>电能护盾被破坏时，以自身为中心对范围内敌人造成等同护盾最大值的伤害</t>
+  </si>
+  <si>
+    <t>炮台扩展模组</t>
+  </si>
+  <si>
+    <t>修复型</t>
+  </si>
+  <si>
+    <t>炮台伤害从7提升至8，攻击间隔从1s缩短至0.8s</t>
+  </si>
+  <si>
+    <t>多线程</t>
+  </si>
+  <si>
+    <t>供电型</t>
+  </si>
+  <si>
+    <t>电能激荡最大攻击目标数从4增加至5</t>
+  </si>
+  <si>
+    <t>混乱变压器</t>
+  </si>
+  <si>
+    <t>攻击力减至6，范围减至4，间隔缩短至2s，耗电量为0，可攻击队友</t>
+  </si>
+  <si>
+    <t>导电</t>
+  </si>
+  <si>
+    <t>攻击敌对生物时附带0.2s眩晕效果</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnhanceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergySaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RapidRepair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepHunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reaper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlastCounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurretModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conductive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个职业都能从自己的独有强化和通用强化之中随机抽取，并选择是否接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮟鱇</t>
+  </si>
+  <si>
+    <t>眩光:鮟鱇使肉状突出的发光量更加强烈，未知的突变使其可以令电子物件故障并恢复自身及周围的鱼群</t>
+  </si>
+  <si>
+    <t>巨岩蟹</t>
+  </si>
+  <si>
+    <t>吐酸:巨岩蟹将朝玩家所在的方向喷射腐蚀物质，造成伤害并腐蚀电能护盾</t>
+  </si>
+  <si>
+    <t>飞石:处于半血以下进入二阶段后触发，巨岩蟹举起一块礁石，向玩家所在的方向扔去，礁石将对路径上的玩家造成伤害并击退并在路径终点爆裂对范围内的玩家造成伤害并击飞</t>
+  </si>
+  <si>
+    <t>生物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本为生活在海中的肉食鱼类，在遭受辐射后变异，体型不断变大，长出陆行生物所拥有的双足，且头部的肉状突出也不断生长为大型的“灯笼”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔:鮟鱇头部的肉状突出可进行氧化发光吸引鱼群，脱离警戒进入敌对状态时，鮟鱇将立即吸引一片鱼群出现在自身周围，之后每隔一段时间都会吸引一片鱼群赶来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞食:作为肉食性鱼类，鮟鱇依旧有着锯齿，变大的体型也使得它的撕咬更加具有威胁，鮟鱇将迅速靠近并攻击造成大量伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入敌对状态立即召唤一片鱼群，之后每隔8s都将召唤一片鱼群直至死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠近玩家撕咬造成8伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自身为中心对7范围内的鱼群和自身恢复20血量并故障玩家3s，每隔6s释放一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在潜艇残骸坠于海底后不久就盘踞旁处的石蟹，遭受辐射使得它拥有巨大的体型，同时突变也令它拥有了喷射腐蚀物质的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固化:巨岩蟹有着坚硬且可以迅速回复的石化外壳来抵挡伤害，在本体遭受一定伤害后，原先外壳将碎裂且立刻产生一个新的外壳，且外壳碎裂产生的碎石可对玩家造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾行:巨岩蟹将朝玩家所在的方向快速前进，攻击并击退路上的一切障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震慑:处于半血以下进入二阶段后触发，巨岩蟹将扰乱这里的洋流，减缓玩家的行动，并每隔一段时间进行剧烈扰动，击飞周围的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固化（被动技能）:初始就拥有一个50点的护盾，生命值每受到150伤害护盾刷新且以自身为中心向周围八个方向发射碎石，碎石速度6，碎石击中玩家造成15伤害（其实可以直接写成初始800血然后每扣200血就发射碎石）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钳击（普通攻击）:靠近玩家拍击造成8伤害，并击飞玩家且使玩家无法操作2s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐酸:向玩家方向喷射酸性物质（在范围内即刻命中），造成3伤害并腐蚀5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震慑（二阶段被动技能）:Boss区域内的所有玩家减速百分之30，每隔5s以自身为中心击飞7范围内的玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞石（二阶段主动技能）:朝玩家投掷飞石，飞石速度10，飞石滑行2s，飞石在路径上对玩家造成8伤害并击飞，飞石在路径终点爆裂对3范围内的玩家造成14伤害并击飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾行-&gt;钳击-&gt;吐酸-&gt;疾行-&gt;吐酸-&gt;钳击-&gt;钳击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾行-&gt;钳击-&gt;飞石-&gt;疾行-&gt;吐酸-&gt;钳击-&gt;疾行-&gt;飞石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +909,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,8 +941,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +980,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -598,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,9 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -642,6 +1064,71 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -928,7 +1415,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="17.58203125" customWidth="1"/>
     <col min="3" max="3" width="30.08203125" customWidth="1"/>
@@ -941,7 +1428,7 @@
     <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="37.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -973,11 +1460,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="53" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1005,11 +1492,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="53" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1037,11 +1524,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="53" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1069,11 +1556,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="53" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1101,11 +1588,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="53" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1133,11 +1620,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="53" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1180,13 +1667,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="16.58203125" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="36" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
@@ -1200,8 +1687,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" ht="54" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1214,8 +1701,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:4" ht="54" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1228,8 +1715,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4" ht="54" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1242,8 +1729,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" ht="54" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1256,8 +1743,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:4" ht="54" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1270,8 +1757,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:4" ht="54" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1284,8 +1771,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:4" ht="54" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1298,8 +1785,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" ht="54" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1312,8 +1799,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:4" ht="54" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1326,8 +1813,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:4" ht="54" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1340,8 +1827,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:4" ht="54" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1368,7 +1855,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1380,40 +1867,40 @@
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="38.5" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" ht="59.5" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1431,10 +1918,10 @@
       <c r="F2" s="8">
         <v>0.5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="8">
@@ -1444,8 +1931,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10" ht="59.5" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1463,10 +1950,10 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>83</v>
       </c>
       <c r="I3" s="8">
@@ -1476,8 +1963,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" ht="59.5" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1495,10 +1982,10 @@
       <c r="F4" s="8">
         <v>0.5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>85</v>
       </c>
       <c r="I4" s="8">
@@ -1508,8 +1995,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" ht="59.5" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1527,10 +2014,10 @@
       <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1550,11 +2037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BE2FDE-F7E6-439F-8F44-218029F94740}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
@@ -1562,7 +2049,7 @@
     <col min="4" max="15" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
@@ -1585,7 +2072,7 @@
         <v>105</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>106</v>
@@ -1609,7 +2096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="40.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
@@ -1656,7 +2143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="40.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
@@ -1703,7 +2190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="40.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>119</v>
       </c>
@@ -1723,7 +2210,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="H4" s="8">
         <v>12</v>
@@ -1741,36 +2228,36 @@
         <v>16</v>
       </c>
       <c r="M4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="40.5" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="H5" s="8">
         <v>10</v>
@@ -1784,7 +2271,7 @@
       <c r="K5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>1</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -1797,15 +2284,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="40.5" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8">
         <v>8</v>
@@ -1844,15 +2331,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="40.5" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8">
         <v>11</v>
@@ -1864,7 +2351,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
@@ -1891,15 +2378,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="40.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="8">
         <v>10</v>
@@ -1911,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
@@ -1938,15 +2425,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="40.5" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
@@ -1955,10 +2442,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H9" s="8">
         <v>8</v>
@@ -1985,15 +2472,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="40.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="8">
         <v>4</v>
@@ -2005,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="8">
         <v>5</v>
@@ -2032,15 +2519,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="40.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8">
         <v>7</v>
@@ -2049,7 +2536,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>16</v>
@@ -2079,27 +2566,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="4"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2108,4 +2595,618 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831D7958-D2EE-4CD7-BEA3-618B9D2112CB}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="58.9140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>4</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10</v>
+      </c>
+      <c r="G5" s="14">
+        <v>8</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="14">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>6</v>
+      </c>
+      <c r="H6" s="14">
+        <v>4</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="42.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="14">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EB2B84-F0FD-415A-98CE-E2F327423E4B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="58.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.5" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4730691-70AE-43FC-BD3A-C54A0FF716A1}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" customWidth="1"/>
+    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="7" max="7" width="47.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="27">
+        <v>270</v>
+      </c>
+      <c r="D2" s="27">
+        <v>5</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="52" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" ht="51.5" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="80.5" customHeight="1">
+      <c r="A5" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="31">
+        <v>4</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="80.5" customHeight="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7" ht="80.5" customHeight="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="80.5" customHeight="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="80.5" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>